--- a/SpaOnline/EventStorming/Spa- Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Spa- Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DAD51-06ED-412D-96F1-076BB171A5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D040A6-6502-47A0-8395-7BBB18F18F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
   <si>
     <t>Descripción</t>
   </si>
@@ -272,9 +272,6 @@
     <t>El usuario debe estar permitido para consultar</t>
   </si>
   <si>
-    <t xml:space="preserve">Pol-Administrador-008 </t>
-  </si>
-  <si>
     <t>Administrador
  Modificado</t>
   </si>
@@ -303,10 +300,6 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Los datos del nuevo SpaOnline deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
- </t>
-  </si>
-  <si>
     <t>Debe existir un numero de identificacion para ser creado</t>
   </si>
   <si>
@@ -315,9 +308,6 @@
   <si>
     <t xml:space="preserve">Los datos del nuevo Spa deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
  </t>
-  </si>
-  <si>
-    <t>Pol-Spa Online -006</t>
   </si>
   <si>
     <t xml:space="preserve">Comando que se encarga de modificar los spa existente </t>
@@ -537,10 +527,6 @@
     <t>Comando que se encarga de registrar un nuevo administrador, para el spa</t>
   </si>
   <si>
-    <t xml:space="preserve">no debe existir un administrador con el mismo numero de identificacion 
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">no debe existir un trabajador con el mismo numero de identificacion
  </t>
   </si>
@@ -565,6 +551,28 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>InformacionBse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no debe existir un administrador con el mismo numero identificacion
+ </t>
+  </si>
+  <si>
+    <t>Pol-Administrador-007</t>
+  </si>
+  <si>
+    <t>Debe existir el Administrador que se va a eliminar</t>
+  </si>
+  <si>
+    <t>Pol-Administrador-008</t>
+  </si>
+  <si>
+    <t>Pol-Spa -006</t>
   </si>
 </sst>
 </file>
@@ -789,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1133,6 +1141,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1140,7 +1157,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1265,6 +1282,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1277,106 +1300,211 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1385,45 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,54 +1522,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,44 +1531,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1910,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1958,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1943,7 +1966,7 @@
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1951,21 +1974,21 @@
       <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
@@ -1983,7 +2006,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>34</v>
@@ -1992,7 +2015,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -2000,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -2020,7 +2043,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1">
@@ -2028,13 +2051,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2057,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2086,84 +2109,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Spa</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="78" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene todo lo relacionado con la empresa</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="25.5">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2173,52 +2196,52 @@
       <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="88" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
@@ -2231,248 +2254,284 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="67"/>
+      <c r="L7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75">
+      <c r="A8" s="54"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" spans="1:14" ht="75">
+      <c r="A10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="51" t="s">
+      <c r="D10" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="75">
-      <c r="A8" s="77"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="84" t="s">
+      <c r="M10" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="112"/>
-    </row>
-    <row r="9" spans="1:14" ht="30">
-      <c r="A9" s="78"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="75">
+      <c r="A11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" ht="75">
-      <c r="A10" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="33" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" ht="75">
-      <c r="A11" s="77"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="112"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="32" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="53"/>
+        <v>128</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="90">
       <c r="A13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="48" t="s">
+      <c r="B13" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>108</v>
       </c>
+      <c r="E13" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>105</v>
+      </c>
       <c r="G13" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="67"/>
+      <c r="J13" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="33" t="s">
-        <v>127</v>
-      </c>
       <c r="M13" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="90" t="s">
-        <v>67</v>
+      <c r="A14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="89" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1">
-      <c r="A15" s="109"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="90"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="55.5" customHeight="1"/>
     <row r="18" ht="42.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A15"/>
@@ -2489,42 +2548,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -2541,7 +2564,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
@@ -2569,84 +2592,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Trabajador</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="78" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>Objeto de domino que contiene lo relacionado con la identificacion del trabajador de la empresa</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2656,52 +2679,52 @@
       <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="97" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="96" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
@@ -2714,306 +2737,306 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="89"/>
+      <c r="J7" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="89"/>
+      <c r="L7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75">
+      <c r="A8" s="63"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="89"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60">
+      <c r="A10" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60">
+      <c r="A11" s="94"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="M11" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30">
+      <c r="A12" s="95"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="104"/>
+    </row>
+    <row r="13" spans="1:14" ht="75">
+      <c r="A13" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="75">
-      <c r="A8" s="49"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45">
-      <c r="A9" s="50"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="31" t="s">
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="31" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60">
-      <c r="A10" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60">
-      <c r="A11" s="114"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30">
-      <c r="A12" s="115"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="89"/>
-    </row>
-    <row r="13" spans="1:14" ht="75">
-      <c r="A13" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="31" t="s">
-        <v>94</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="67"/>
+      <c r="J13" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="95"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="66"/>
+    </row>
+    <row r="16" spans="1:14" ht="45" customHeight="1">
+      <c r="A16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="43" t="s">
+      <c r="C16" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="39" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="48" t="s">
+      <c r="M16" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="54"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="55"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="115"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="1:14" ht="45" customHeight="1">
-      <c r="A16" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="77"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="78"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="39" t="s">
-        <v>98</v>
-      </c>
       <c r="M18" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3021,6 +3044,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -3037,51 +3105,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3096,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3124,84 +3147,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$7</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="78" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de domino que contiene lo relacionado con la identificacion del admministrador de la empresa</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -3211,52 +3234,52 @@
       <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="97" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="96" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
@@ -3269,38 +3292,38 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="97" t="s">
+      <c r="B7" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="31" t="s">
         <v>44</v>
       </c>
@@ -3309,73 +3332,73 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="81" customHeight="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="79" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="119" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="60">
-      <c r="A9" s="118"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="83"/>
+        <v>147</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:14" ht="75">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="33" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="48" t="s">
+      <c r="I10" s="67"/>
+      <c r="J10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="33" t="s">
         <v>55</v>
       </c>
@@ -3384,73 +3407,73 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="60">
-      <c r="A11" s="120"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="79" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="119" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30">
-      <c r="A12" s="121"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="33" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="83"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:14" ht="75">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="33" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="67"/>
+      <c r="J13" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="33" t="s">
         <v>43</v>
       </c>
@@ -3459,94 +3482,90 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="30">
-      <c r="A14" s="106"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="114" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30">
-      <c r="A15" s="107"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="50"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="104"/>
-    </row>
-    <row r="16" spans="1:14" ht="75">
-      <c r="A16" s="122" t="s">
+      <c r="M15" s="115"/>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="48" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="M16" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60">
-      <c r="A17" s="123"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="49"/>
+    <row r="17" spans="1:13" ht="30">
+      <c r="A17" s="112"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="33" t="s">
         <v>45</v>
       </c>
@@ -3555,75 +3574,26 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="30">
-      <c r="A18" s="124"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="50"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M18" s="31" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="62">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
@@ -3639,6 +3609,53 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3654,7 +3671,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3681,84 +3698,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="str">
-        <f>'Listado Objetos de Dominio'!$A$7</f>
-        <v>Administrador</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="B2" s="76" t="str">
+        <f>'Listado Objetos de Dominio'!$A$5</f>
+        <v>Tipoidentificacion</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
-        <f>'Listado Objetos de Dominio'!$B$7</f>
-        <v>Objeto de domino que contiene lo relacionado con la identificacion del admministrador de la empresa</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="78" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Objeto de domino que contiene la informacion de los tipos de identificacion de las personas y tributarios ya existentes</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -3768,52 +3785,52 @@
       <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="88" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="96" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
@@ -3826,78 +3843,90 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="132"/>
+      <c r="J7" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="K7" s="132"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="131"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="45" customHeight="1"/>
     <row r="16" spans="1:14" ht="45" customHeight="1"/>
     <row r="18" ht="42.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3914,18 +3943,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{99E6CA45-2E12-4B29-894F-B64F8C596A8B}"/>
@@ -3938,18 +3955,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4097,6 +4114,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -4109,14 +4134,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
